--- a/baselines_evaluation.xlsx
+++ b/baselines_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,45 +486,60 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Recall@20</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Recall@50</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Precision@-1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Precision@1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Precision@5</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Precision@10</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>NDCG@-1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>NDCG@1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>NDCG@10</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@100</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Set</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Subset</t>
         </is>
@@ -564,32 +579,41 @@
         <v>0.7144067883491516</v>
       </c>
       <c r="K2" t="n">
+        <v>0.7978813648223877</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8940678238868713</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.0177563019096851</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.4347457587718963</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.1262711882591247</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>0.0714406743645668</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>0.6212393045425415</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>0.4347457587718963</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>0.5644705295562744</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="n">
+        <v>0.5644705295562744</v>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -629,32 +653,41 @@
         <v>0.7758474349975586</v>
       </c>
       <c r="K3" t="n">
+        <v>0.8622881174087524</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9563559293746948</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.6600331664085388</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.4338982999324798</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.1361016929149627</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>0.0775847434997558</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>0.6429080367088318</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>0.4338982999324798</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>0.5952140688896179</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="n">
+        <v>0.5952140688896179</v>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -694,32 +727,41 @@
         <v>0.7216101884841919</v>
       </c>
       <c r="K4" t="n">
+        <v>0.8207626938819885</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9220339059829712</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.0162621885538101</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.380084753036499</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>0.1244915276765823</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.07216101884841911</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.5974993705749512</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>0.3796610236167907</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>0.5396417379379272</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="n">
+        <v>0.5396417379379272</v>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -759,32 +801,41 @@
         <v>0.2503700128700128</v>
       </c>
       <c r="K5" t="n">
+        <v>0.3759503514503514</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5970463815463817</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.008561581715943701</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.07675675675675669</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.0421621621621624</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.0311891891891894</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.2959533074368202</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>0.07675675675675669</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>0.1501977475329972</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="n">
+        <v>0.2723807180918493</v>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -824,32 +875,41 @@
         <v>0.2544804474804474</v>
       </c>
       <c r="K6" t="n">
+        <v>0.3797167607167607</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6066757251757251</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.008561581715943701</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.0664864864864864</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>0.0401081081081083</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>0.0309189189189191</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>0.2963671453487062</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>0.0664864864864864</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>0.1507579610863343</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="n">
+        <v>0.2733596637437333</v>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -889,32 +949,41 @@
         <v>0.2544804474804474</v>
       </c>
       <c r="K7" t="n">
+        <v>0.3797167607167607</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6102883377883377</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.008561581715943701</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.0664864864864864</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>0.0401081081081083</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>0.0309189189189191</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>0.2963911279861504</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>0.0664864864864864</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>0.1507924511179428</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="n">
+        <v>0.2732869666845965</v>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -954,32 +1023,41 @@
         <v>0.0986634491634491</v>
       </c>
       <c r="K8" t="n">
+        <v>0.1842198297198297</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3954799524799525</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.008561581715943701</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.0048648648648648</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.008432432432432401</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.0125405405405405</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0.2060111298052126</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>0.0048648648648648</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>0.0412975915400485</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="n">
+        <v>0.1714609918743153</v>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -1019,32 +1097,41 @@
         <v>0.6107198596000671</v>
       </c>
       <c r="K9" t="n">
+        <v>0.6911187767982483</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7891005277633667</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.0131766097620129</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.3232499957084656</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.1056766062974929</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.0610719844698905</v>
       </c>
-      <c r="O9" t="n">
-        <v>0.5281693339347839</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
+        <v>0.5281688570976257</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.3232499957084656</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>0.4592688977718353</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="n">
+        <v>0.4592825472354889</v>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1060,7 +1147,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.003471136288002</v>
+        <v>0.0034711353600503</v>
       </c>
       <c r="D10" t="n">
         <v>0.286855399608612</v>
@@ -1084,32 +1171,41 @@
         <v>0.5578295588493347</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0017387175466865</v>
+        <v>0.6343526840209961</v>
       </c>
       <c r="L10" t="n">
+        <v>0.7396606206893921</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0017387170810252</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.286855399608612</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.09586425125598901</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.0557829551398754</v>
       </c>
-      <c r="O10" t="n">
-        <v>0.4888517260551452</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
+        <v>0.4888677299022674</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.286855399608612</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>0.4136734306812286</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="n">
+        <v>0.4136539101600647</v>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1149,32 +1245,41 @@
         <v>0.559342086315155</v>
       </c>
       <c r="K11" t="n">
+        <v>0.6382284760475159</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.7389043569564819</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.0017872807802632</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.2844448685646057</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>0.0956468284130096</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>0.0559342056512832</v>
       </c>
-      <c r="O11" t="n">
-        <v>0.4877307713031769</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
+        <v>0.487712949514389</v>
+      </c>
+      <c r="R11" t="n">
         <v>0.2842558026313782</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>0.4130165576934814</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="n">
+        <v>0.4129970967769623</v>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1214,32 +1319,41 @@
         <v>0.0902545610194673</v>
       </c>
       <c r="K12" t="n">
+        <v>0.1299909648606287</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2098277937553428</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.0010608366795878</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.0294975473949357</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>0.0163330239957573</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>0.0121503380617787</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>0.185457379909272</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>0.0294975473949357</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>0.0553665440696344</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="n">
+        <v>0.09889623401292789</v>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1279,32 +1393,41 @@
         <v>0.0520841738725869</v>
       </c>
       <c r="K13" t="n">
+        <v>0.0808852068491593</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1508952850409583</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.0010608366795878</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.0101418533739891</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>0.008259313270582</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>0.0069932387644172</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>0.1606118985976872</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>0.0101418533739891</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>0.0277294863319811</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="n">
+        <v>0.06644434910065419</v>
+      </c>
+      <c r="U13" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1344,32 +1467,41 @@
         <v>0.0520841738725869</v>
       </c>
       <c r="K14" t="n">
+        <v>0.0804683270286727</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1517039029332963</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.0010608366795878</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.0101418533739891</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>0.008259313270582</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>0.0069932387644172</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>0.1605671166098208</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>0.0101418533739891</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>0.0276836787521129</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="n">
+        <v>0.06640341405668181</v>
+      </c>
+      <c r="U14" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1409,32 +1541,41 @@
         <v>0.008051459750054399</v>
       </c>
       <c r="K15" t="n">
+        <v>0.0154244402084908</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0409498074320798</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.0010608366795878</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.0005965796102346</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>0.0008352114543285</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>0.0010672146360864</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>0.1259605184246773</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>0.0005965796102346</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>0.0034740264069173</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="n">
+        <v>0.0171006450776776</v>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1474,32 +1615,41 @@
         <v>0.6594238877296448</v>
       </c>
       <c r="K16" t="n">
+        <v>0.7303336262702942</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8133694529533386</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.0159194264560937</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.3791394829750061</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>0.1166871860623359</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>0.06594238430261611</v>
       </c>
-      <c r="O16" t="n">
-        <v>0.572415292263031</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
+        <v>0.5724266767501831</v>
+      </c>
+      <c r="R16" t="n">
         <v>0.3791394829750061</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>0.5126505494117737</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="n">
+        <v>0.5126505494117737</v>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1539,32 +1689,41 @@
         <v>0.6214144825935364</v>
       </c>
       <c r="K17" t="n">
+        <v>0.6904776692390442</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.7735750079154968</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.0015079691074788</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.3532254099845886</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>0.1095962077379226</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>0.0621414519846439</v>
       </c>
-      <c r="O17" t="n">
-        <v>0.5445130467414856</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
+        <v>0.5445549488067627</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.3528560996055603</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>0.4808982312679291</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="n">
+        <v>0.4806854426860809</v>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1604,32 +1763,41 @@
         <v>0.5986396670341492</v>
       </c>
       <c r="K18" t="n">
+        <v>0.6706573963165283</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7578480839729309</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.0014294589636847</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.3301120400428772</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>0.1048134937882423</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>0.0598639659583568</v>
       </c>
-      <c r="O18" t="n">
-        <v>0.5249127745628357</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
+        <v>0.5249077677726746</v>
+      </c>
+      <c r="R18" t="n">
         <v>0.3300812542438507</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>0.4573675394058227</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="n">
+        <v>0.4573764503002167</v>
+      </c>
+      <c r="U18" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1669,32 +1837,41 @@
         <v>0.103094187438594</v>
       </c>
       <c r="K19" t="n">
+        <v>0.1477384286798339</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.2287153317810989</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.0008652023199945</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.0314580341991907</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>0.0187094809206798</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>0.0138798242179003</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>0.1906568422169265</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>0.0314580341991907</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>0.06286802554049301</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="n">
+        <v>0.1070194832424315</v>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1734,32 +1911,41 @@
         <v>0.07009916954114841</v>
       </c>
       <c r="K20" t="n">
+        <v>0.1037541125714992</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.1723290101534491</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.0008652023199945</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.0179698037680024</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>0.0114606448244351</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>0.009028412304746601</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>0.1696977514219419</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>0.0179698037680024</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>0.0398488502582696</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="n">
+        <v>0.0779873543921258</v>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1799,32 +1985,41 @@
         <v>0.07009916954114841</v>
       </c>
       <c r="K21" t="n">
+        <v>0.1018604564975795</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.172033559432684</v>
+      </c>
+      <c r="M21" t="n">
         <v>0.0008652023199945</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.0179698037680024</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>0.0114606448244351</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>0.009028412304746601</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>0.1696686333879654</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>0.0179698037680024</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>0.0398488502582696</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="n">
+        <v>0.0781719429267571</v>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1864,32 +2059,41 @@
         <v>0.0039017969803768</v>
       </c>
       <c r="K22" t="n">
+        <v>0.0146522220859774</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0337443745349073</v>
+      </c>
+      <c r="M22" t="n">
         <v>0.0008652023199945</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.0009137188356611</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>0.0004873167123526</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>0.0005569333855458001</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>0.1225541352076792</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>0.0009137188356611</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>0.0019870119229032</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="n">
+        <v>0.0145728285877015</v>
+      </c>
+      <c r="U22" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1929,32 +2133,41 @@
         <v>0.5225129127502441</v>
       </c>
       <c r="K23" t="n">
+        <v>0.5959327816963196</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.6942906379699707</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.0052103041671216</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.2854687869548797</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>0.0899446234107017</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>0.0522512905299663</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>0.4737207591533661</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>0.2854496836662292</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>0.3960371315479278</v>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="n">
+        <v>0.3960230350494385</v>
+      </c>
+      <c r="U23" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -1970,7 +2183,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0013343715778258</v>
+        <v>0.0013343716940803</v>
       </c>
       <c r="D24" t="n">
         <v>0.2409394681453704</v>
@@ -1994,32 +2207,41 @@
         <v>0.4574947357177734</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0006676472257822</v>
+        <v>0.5276685357093811</v>
       </c>
       <c r="L24" t="n">
+        <v>0.6290051341056824</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0006676472839899</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.2409394681453704</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>0.07798358052968971</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>0.0457494743168354</v>
       </c>
-      <c r="O24" t="n">
-        <v>0.4258145689964294</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
+        <v>0.4257848262786865</v>
+      </c>
+      <c r="R24" t="n">
         <v>0.2409012764692306</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>0.3411957621574402</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="T24" t="n">
+        <v>0.3412104547023773</v>
+      </c>
+      <c r="U24" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2059,32 +2281,41 @@
         <v>0.4544586539268493</v>
       </c>
       <c r="K25" t="n">
+        <v>0.5236967802047729</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6177773475646973</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.0006617234321311</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.2355356067419052</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>0.0774527415633201</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>0.045445866882801</v>
       </c>
-      <c r="O25" t="n">
-        <v>0.4205440580844879</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
+        <v>0.4205288887023926</v>
+      </c>
+      <c r="R25" t="n">
         <v>0.2352109998464584</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>0.3372302055358886</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="T25" t="n">
+        <v>0.3372342884540558</v>
+      </c>
+      <c r="U25" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2124,32 +2355,41 @@
         <v>0.0677864086569854</v>
       </c>
       <c r="K26" t="n">
+        <v>0.0969127820972733</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1489532125399152</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.0004121834566623</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.0198629216503158</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>0.0124123101733633</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>0.0094315280204276</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>0.158211912707564</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>0.0198629216503158</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>0.040528230488395</v>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="T26" t="n">
+        <v>0.0695082121419167</v>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2189,32 +2429,41 @@
         <v>0.0321208469436846</v>
       </c>
       <c r="K27" t="n">
+        <v>0.0487862769485154</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0868551073344194</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.0004121834566623</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.0119338798548582</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>0.0057734175514042</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>0.0042655557048782</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>0.1379130923856318</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>0.0119338798548582</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>0.0198916446151054</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="n">
+        <v>0.0410299053047943</v>
+      </c>
+      <c r="U27" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2254,32 +2503,41 @@
         <v>0.0320312532510806</v>
       </c>
       <c r="K28" t="n">
+        <v>0.0487593988407342</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0868113261026589</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.0004121834566623</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.0119338798548582</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>0.0057734175514042</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>0.0042548044617657</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>0.1379114520015112</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>0.0119338798548582</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>0.0198646900000702</v>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="T28" t="n">
+        <v>0.04103634117027</v>
+      </c>
+      <c r="U28" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2319,32 +2577,41 @@
         <v>0.0039232447732649</v>
       </c>
       <c r="K29" t="n">
+        <v>0.0061056276668425</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0154887616040173</v>
+      </c>
+      <c r="M29" t="n">
         <v>0.0004121834566623</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.0002419029700309</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>0.0004569278322806</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>0.0005429377771804</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>0.1078670681700782</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>0.0002419029700309</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>0.0017308861788767</v>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="n">
+        <v>0.0068192340087864</v>
+      </c>
+      <c r="U29" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2384,32 +2651,41 @@
         <v>0.7022697925567627</v>
       </c>
       <c r="K30" t="n">
+        <v>0.7682520747184753</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.8469029068946838</v>
+      </c>
+      <c r="M30" t="n">
         <v>0.0176790468394756</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.4328436851501465</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>0.1259760856628418</v>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>0.07022698223590849</v>
       </c>
-      <c r="O30" t="n">
-        <v>0.6156063675880432</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
+        <v>0.6156264543533325</v>
+      </c>
+      <c r="R30" t="n">
         <v>0.4328436851501465</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>0.5622794032096863</v>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="T30" t="n">
+        <v>0.5622794032096863</v>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2425,7 +2701,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0029024674851913</v>
+        <v>0.0029024705030428</v>
       </c>
       <c r="D31" t="n">
         <v>0.4126940667629242</v>
@@ -2449,32 +2725,41 @@
         <v>0.6748575568199158</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001453383360058</v>
+        <v>0.7455541491508484</v>
       </c>
       <c r="L31" t="n">
+        <v>0.8285552859306335</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0014533848734572</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.4126940667629242</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>0.1202533692121505</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>0.0674857571721077</v>
       </c>
-      <c r="O31" t="n">
-        <v>0.5954091548919678</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
+        <v>0.5954210758209229</v>
+      </c>
+      <c r="R31" t="n">
         <v>0.4127486944198608</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>0.5375685691833496</v>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="T31" t="n">
+        <v>0.5376056432723999</v>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2514,32 +2799,41 @@
         <v>0.6518320441246033</v>
       </c>
       <c r="K32" t="n">
+        <v>0.7194342613220215</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.8023262023925781</v>
+      </c>
+      <c r="M32" t="n">
         <v>0.001347838435322</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.3885764181613922</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>0.1156591847538948</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>0.0651831999421119</v>
       </c>
-      <c r="O32" t="n">
-        <v>0.5732586979866028</v>
-      </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
+        <v>0.5732842683792114</v>
+      </c>
+      <c r="R32" t="n">
         <v>0.3882487714290619</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>0.5134545564651489</v>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="T32" t="n">
+        <v>0.5133510828018188</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2579,32 +2873,41 @@
         <v>0.1268426586399286</v>
       </c>
       <c r="K33" t="n">
+        <v>0.1796973965256287</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.2734441110799724</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.0006400804367632001</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.0345975948196114</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>0.0209528214616111</v>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>0.0154440333024995</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>0.1984015784842427</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>0.0345975948196114</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>0.0745009487267802</v>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="T33" t="n">
+        <v>0.1227757646855746</v>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2644,32 +2947,41 @@
         <v>0.090133249894728</v>
       </c>
       <c r="K34" t="n">
+        <v>0.1318540038758038</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.214484050597333</v>
+      </c>
+      <c r="M34" t="n">
         <v>0.0006400804367632001</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.0188020351526364</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>0.0140610545790934</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>0.0105989824236825</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>0.1773509136263801</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>0.0188020351526364</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>0.0500201498123002</v>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="T34" t="n">
+        <v>0.09427421387785161</v>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2709,32 +3021,41 @@
         <v>0.090133249894728</v>
       </c>
       <c r="K35" t="n">
+        <v>0.1318540038758038</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.2142601035917876</v>
+      </c>
+      <c r="M35" t="n">
         <v>0.0006400804367632001</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.0188020351526364</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>0.0140610545790934</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>0.0105989824236825</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>0.1773458557926554</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
         <v>0.0188020351526364</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>0.0500312726500009</v>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="T35" t="n">
+        <v>0.0942672284122188</v>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2774,32 +3095,41 @@
         <v>0.0033284531820745</v>
       </c>
       <c r="K36" t="n">
+        <v>0.0073694645912635</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0322700908936317</v>
+      </c>
+      <c r="M36" t="n">
         <v>0.0006400804367632001</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.0004625346901017</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>0.0003098982423681</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>0.0004278445883441</v>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>0.1165999368814246</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
         <v>0.0004625346901017</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>0.0015731982532033</v>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="T36" t="n">
+        <v>0.014466137255728</v>
+      </c>
+      <c r="U36" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2815,7 +3145,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1055624086823024</v>
+        <v>0.105561736068026</v>
       </c>
       <c r="D37" t="n">
         <v>0.7314998507499695</v>
@@ -2839,32 +3169,41 @@
         <v>0.9496561884880066</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0558280013501644</v>
+        <v>0.9741289019584656</v>
       </c>
       <c r="L37" t="n">
+        <v>0.9945228099822998</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0558276250958442</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.7314998507499695</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>0.1829390525817871</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>0.0949656218290329</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>0.8542130589485168</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>0.7314998507499695</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>0.8429543375968933</v>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="T37" t="n">
+        <v>0.8429543375968933</v>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -2904,32 +3243,41 @@
         <v>0.9632909893989564</v>
       </c>
       <c r="K38" t="n">
+        <v>0.9838014245033264</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9980188608169556</v>
+      </c>
+      <c r="M38" t="n">
         <v>0.3049449324607849</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.7151846885681152</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>0.1857359260320663</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>0.09632910043001169</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>0.8539680242538452</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>0.7151846885681152</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>0.8454810976982117</v>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="T38" t="n">
+        <v>0.8454810976982117</v>
+      </c>
+      <c r="U38" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -2969,32 +3317,41 @@
         <v>0.9488404393196106</v>
       </c>
       <c r="K39" t="n">
+        <v>0.9764596223831176</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9948723912239076</v>
+      </c>
+      <c r="M39" t="n">
         <v>0.0573685579001903</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.7009672522544861</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>0.1822165250778198</v>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>0.0948840454220771</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>0.8410143852233887</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>0.7009672522544861</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>0.8293303251266479</v>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="T39" t="n">
+        <v>0.8293303251266479</v>
+      </c>
+      <c r="U39" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3034,32 +3391,41 @@
         <v>0.6862270662002444</v>
       </c>
       <c r="K40" t="n">
+        <v>0.8343857395936073</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9551399857613536</v>
+      </c>
+      <c r="M40" t="n">
         <v>0.014867988342636</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.2033974072418417</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>0.1185516316495364</v>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>0.0836537028758827</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>0.4925164387744412</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
         <v>0.2033974072418417</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>0.4173979663995851</v>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="T40" t="n">
+        <v>0.4925164387744412</v>
+      </c>
+      <c r="U40" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3099,32 +3465,41 @@
         <v>0.6597421196661249</v>
       </c>
       <c r="K41" t="n">
+        <v>0.8289495687014685</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9612657376068194</v>
+      </c>
+      <c r="M41" t="n">
         <v>0.014867988342636</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.1931157800625838</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>0.1097302935479106</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>0.0801221874534413</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>0.4750965192216064</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>0.1931157800625838</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>0.3923960908089205</v>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="T41" t="n">
+        <v>0.4750965192216064</v>
+      </c>
+      <c r="U41" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3164,32 +3539,41 @@
         <v>0.6597421196661249</v>
       </c>
       <c r="K42" t="n">
+        <v>0.8289495687014685</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9627372023661698</v>
+      </c>
+      <c r="M42" t="n">
         <v>0.014867988342636</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.1931157800625838</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>0.1097302935479106</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>0.0801221874534413</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>0.4746453856459868</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>0.1931157800625838</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>0.3919308238326217</v>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="T42" t="n">
+        <v>0.4746453856459868</v>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3229,32 +3613,41 @@
         <v>0.4167106006958487</v>
       </c>
       <c r="K43" t="n">
+        <v>0.5543384705990874</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.8472193839538494</v>
+      </c>
+      <c r="M43" t="n">
         <v>0.014867988342636</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.07912382655341969</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>0.0784383847414668</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>0.0506034868126968</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>0.3685844867256266</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
         <v>0.07912382655341969</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>0.242701983737122</v>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="T43" t="n">
+        <v>0.3685844867256266</v>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3294,32 +3687,41 @@
         <v>0.946536660194397</v>
       </c>
       <c r="K44" t="n">
+        <v>0.969065248966217</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9887357354164124</v>
+      </c>
+      <c r="M44" t="n">
         <v>0.0308810267597436</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.7511768937110901</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>0.1820275783538818</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>0.0946536660194397</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>0.8624147176742554</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>0.7511768937110901</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>0.8510051965713501</v>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="T44" t="n">
+        <v>0.8510051965713501</v>
+      </c>
+      <c r="U44" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3359,32 +3761,41 @@
         <v>0.9644418358802797</v>
       </c>
       <c r="K45" t="n">
+        <v>0.9836919903755188</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.9954606294631958</v>
+      </c>
+      <c r="M45" t="n">
         <v>0.2919918894767761</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.7372226119041443</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>0.1856422275304794</v>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>0.09644418209791179</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>0.8629311323165894</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>0.7372226119041443</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>0.8548914194107056</v>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="T45" t="n">
+        <v>0.8548914194107056</v>
+      </c>
+      <c r="U45" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3424,32 +3835,41 @@
         <v>0.9497309923171996</v>
       </c>
       <c r="K46" t="n">
+        <v>0.9748654961586</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9933590888977052</v>
+      </c>
+      <c r="M46" t="n">
         <v>0.0308225359767675</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.7051950097084045</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>0.1817753911018371</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>0.0949731022119522</v>
       </c>
-      <c r="O46" t="n">
-        <v>0.8431017398834229</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
+        <v>0.8431327342987061</v>
+      </c>
+      <c r="R46" t="n">
         <v>0.7052791118621826</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>0.8319594860076904</v>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="T46" t="n">
+        <v>0.8318864107131958</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3489,32 +3909,41 @@
         <v>0.6262067582827523</v>
       </c>
       <c r="K47" t="n">
+        <v>0.765078639065679</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.9023072239806202</v>
+      </c>
+      <c r="M47" t="n">
         <v>0.0097792596830791</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.2024675038554747</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>0.1095615774399737</v>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>0.077340823970046</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>0.4725152553250861</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
         <v>0.2024675038554747</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="S47" t="n">
         <v>0.3878815768424552</v>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="T47" t="n">
+        <v>0.4687272448043427</v>
+      </c>
+      <c r="U47" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3554,32 +3983,41 @@
         <v>0.589437656406535</v>
       </c>
       <c r="K48" t="n">
+        <v>0.7483916554191562</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.8992747541398366</v>
+      </c>
+      <c r="M48" t="n">
         <v>0.0097792596830791</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.1477197620621282</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>0.0982595285305201</v>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>0.07208636263494921</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>0.4386334601082767</v>
       </c>
-      <c r="P48" t="n">
+      <c r="R48" t="n">
         <v>0.1477197620621282</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="S48" t="n">
         <v>0.3446552495184699</v>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="T48" t="n">
+        <v>0.4350914383049284</v>
+      </c>
+      <c r="U48" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3619,32 +4057,41 @@
         <v>0.589437656406535</v>
       </c>
       <c r="K49" t="n">
+        <v>0.7483916554191562</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.8992747541398366</v>
+      </c>
+      <c r="M49" t="n">
         <v>0.0097792596830791</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.1477197620621282</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>0.0982595285305201</v>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>0.07208636263494921</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>0.4386337970604098</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>0.1477197620621282</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="S49" t="n">
         <v>0.3446552495184699</v>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="T49" t="n">
+        <v>0.4351600042842939</v>
+      </c>
+      <c r="U49" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3684,32 +4131,41 @@
         <v>0.3065392850947033</v>
       </c>
       <c r="K50" t="n">
+        <v>0.4063359043340508</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.751049870906404</v>
+      </c>
+      <c r="M50" t="n">
         <v>0.0097792596830791</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.1300947345230227</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>0.0663582286847323</v>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>0.0371227142542419</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>0.3669396233392727</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R50" t="n">
         <v>0.1300947345230227</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="S50" t="n">
         <v>0.2251824187505021</v>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="T50" t="n">
+        <v>0.3577088706056995</v>
+      </c>
+      <c r="U50" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3749,32 +4205,41 @@
         <v>0.975062370300293</v>
       </c>
       <c r="K51" t="n">
+        <v>0.9900249242782592</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.999861478805542</v>
+      </c>
+      <c r="M51" t="n">
         <v>0.0815188586711883</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.7991133332252502</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>0.1903574466705322</v>
       </c>
-      <c r="N51" t="n">
+      <c r="P51" t="n">
         <v>0.0975062325596809</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>0.8979824781417847</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
         <v>0.7991133332252502</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
         <v>0.8921695947647095</v>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="T51" t="n">
+        <v>0.8921695947647095</v>
+      </c>
+      <c r="U51" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -3814,32 +4279,41 @@
         <v>0.9763092398643494</v>
       </c>
       <c r="K52" t="n">
+        <v>0.9927957653999328</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
         <v>0.4109880328178406</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.7793017625808716</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>0.1899418085813522</v>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>0.097630925476551</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>0.8891003131866455</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R52" t="n">
         <v>0.7793017625808716</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="S52" t="n">
         <v>0.8833838105201721</v>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="T52" t="n">
+        <v>0.8833838105201721</v>
+      </c>
+      <c r="U52" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -3879,32 +4353,41 @@
         <v>0.9707674980163574</v>
       </c>
       <c r="K53" t="n">
+        <v>0.988362431526184</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.9997228980064392</v>
+      </c>
+      <c r="M53" t="n">
         <v>0.0770712718367576</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.7492380142211914</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>0.1875034570693969</v>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>0.09707675129175181</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>0.8725389838218689</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R53" t="n">
         <v>0.7492380142211914</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="S53" t="n">
         <v>0.8657087087631226</v>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="T53" t="n">
+        <v>0.8657087087631226</v>
+      </c>
+      <c r="U53" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -3944,32 +4427,41 @@
         <v>0.7699960558648435</v>
       </c>
       <c r="K54" t="n">
+        <v>0.906359137624779</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.9949290906924084</v>
+      </c>
+      <c r="M54" t="n">
         <v>0.024813673991366</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.2917411512334644</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>0.1421165534501323</v>
       </c>
-      <c r="N54" t="n">
+      <c r="P54" t="n">
         <v>0.0965141222738725</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>0.5637631483684409</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
         <v>0.2917411512334644</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>0.5055685804605373</v>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="T54" t="n">
+        <v>0.5637631483684409</v>
+      </c>
+      <c r="U54" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4009,32 +4501,41 @@
         <v>0.7477047403397062</v>
       </c>
       <c r="K55" t="n">
+        <v>0.896760843534172</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.997744607317364</v>
+      </c>
+      <c r="M55" t="n">
         <v>0.024813673991366</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.2062924562030747</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>0.1314622810153786</v>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>0.0937075437969325</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>0.5149402759986091</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R55" t="n">
         <v>0.2062924562030747</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="S55" t="n">
         <v>0.4507475225031617</v>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="T55" t="n">
+        <v>0.5149402759986091</v>
+      </c>
+      <c r="U55" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4074,32 +4575,41 @@
         <v>0.7479279102893689</v>
       </c>
       <c r="K56" t="n">
+        <v>0.896760843534172</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.997744607317364</v>
+      </c>
+      <c r="M56" t="n">
         <v>0.024813673991366</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.2062924562030747</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>0.1295316410439805</v>
       </c>
-      <c r="N56" t="n">
+      <c r="P56" t="n">
         <v>0.0933678941723346</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>0.5147731926690132</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R56" t="n">
         <v>0.2062924562030747</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="S56" t="n">
         <v>0.450414574342265</v>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="T56" t="n">
+        <v>0.5147731926690132</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4139,32 +4649,41 @@
         <v>0.5966649357872098</v>
       </c>
       <c r="K57" t="n">
+        <v>0.798410002780757</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.9959569777142177</v>
+      </c>
+      <c r="M57" t="n">
         <v>0.024813673991366</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.0025026814444047</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>0.0924919556667826</v>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>0.07398998927422661</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>0.3516733299641237</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R57" t="n">
         <v>0.0025026814444047</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="S57" t="n">
         <v>0.2529822025563364</v>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="T57" t="n">
+        <v>0.3516733299641237</v>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4204,32 +4723,41 @@
         <v>0.9713069200515748</v>
       </c>
       <c r="K58" t="n">
+        <v>0.9871343970298768</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.9969455599784852</v>
+      </c>
+      <c r="M58" t="n">
         <v>0.0518994517624378</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.7731395959854126</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>0.1898000687360763</v>
       </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
         <v>0.09713069349527351</v>
       </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
         <v>0.8859732151031494</v>
       </c>
-      <c r="P58" t="n">
+      <c r="R58" t="n">
         <v>0.7731395959854126</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="S58" t="n">
         <v>0.8794039487838745</v>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="T58" t="n">
+        <v>0.8794039487838745</v>
+      </c>
+      <c r="U58" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4269,32 +4797,41 @@
         <v>0.9741762280464172</v>
       </c>
       <c r="K59" t="n">
+        <v>0.9899111390113832</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.9993520975112916</v>
+      </c>
+      <c r="M59" t="n">
         <v>0.3894064426422119</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.7629581689834595</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>0.1898741275072097</v>
       </c>
-      <c r="N59" t="n">
+      <c r="P59" t="n">
         <v>0.0974176228046417</v>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>0.8823725581169128</v>
       </c>
-      <c r="P59" t="n">
+      <c r="R59" t="n">
         <v>0.7629581689834595</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="S59" t="n">
         <v>0.8762820959091187</v>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="T59" t="n">
+        <v>0.8762820959091187</v>
+      </c>
+      <c r="U59" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4334,32 +4871,41 @@
         <v>0.9629766941070556</v>
       </c>
       <c r="K60" t="n">
+        <v>0.9839873909950256</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.9969455599784852</v>
+      </c>
+      <c r="M60" t="n">
         <v>0.0470547340810298</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.7159385681152344</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>0.1853757798671722</v>
       </c>
-      <c r="N60" t="n">
+      <c r="P60" t="n">
         <v>0.0962976664304733</v>
       </c>
-      <c r="O60" t="n">
-        <v>0.8549696207046509</v>
-      </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
+        <v>0.854947566986084</v>
+      </c>
+      <c r="R60" t="n">
         <v>0.7160310745239258</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="S60" t="n">
         <v>0.8464776873588562</v>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="T60" t="n">
+        <v>0.8464776873588562</v>
+      </c>
+      <c r="U60" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4399,32 +4945,41 @@
         <v>0.6405584343452839</v>
       </c>
       <c r="K61" t="n">
+        <v>0.8427231723245568</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.9716247970605828</v>
+      </c>
+      <c r="M61" t="n">
         <v>0.0184636418012471</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.1894386054857728</v>
       </c>
-      <c r="M61" t="n">
+      <c r="O61" t="n">
         <v>0.1157908228659395</v>
       </c>
-      <c r="N61" t="n">
+      <c r="P61" t="n">
         <v>0.0849653934888575</v>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>0.4784496321441399</v>
       </c>
-      <c r="P61" t="n">
+      <c r="R61" t="n">
         <v>0.1894386054857728</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="S61" t="n">
         <v>0.3877663051407842</v>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="T61" t="n">
+        <v>0.4784496321441399</v>
+      </c>
+      <c r="U61" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4464,32 +5019,41 @@
         <v>0.6195133116050828</v>
       </c>
       <c r="K62" t="n">
+        <v>0.8451735513482503</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.9754460089598516</v>
+      </c>
+      <c r="M62" t="n">
         <v>0.0184636418012471</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.1649577031530376</v>
       </c>
-      <c r="M62" t="n">
+      <c r="O62" t="n">
         <v>0.1038451679056707</v>
       </c>
-      <c r="N62" t="n">
+      <c r="P62" t="n">
         <v>0.0817482696744503</v>
       </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
         <v>0.4542376308857733</v>
       </c>
-      <c r="P62" t="n">
+      <c r="R62" t="n">
         <v>0.1649577031530376</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="S62" t="n">
         <v>0.3579311176984013</v>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="T62" t="n">
+        <v>0.4542376308857733</v>
+      </c>
+      <c r="U62" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4529,32 +5093,41 @@
         <v>0.6195133116050828</v>
       </c>
       <c r="K63" t="n">
+        <v>0.8451735513482503</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.9754460089598516</v>
+      </c>
+      <c r="M63" t="n">
         <v>0.0184636418012471</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.1649577031530376</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>0.1038451679056707</v>
       </c>
-      <c r="N63" t="n">
+      <c r="P63" t="n">
         <v>0.0817482696744503</v>
       </c>
-      <c r="O63" t="n">
+      <c r="Q63" t="n">
         <v>0.4542415095659065</v>
       </c>
-      <c r="P63" t="n">
+      <c r="R63" t="n">
         <v>0.1649577031530376</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="S63" t="n">
         <v>0.3579311176984013</v>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="T63" t="n">
+        <v>0.4542415095659065</v>
+      </c>
+      <c r="U63" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4594,32 +5167,41 @@
         <v>0.3725000305172055</v>
       </c>
       <c r="K64" t="n">
+        <v>0.5328864088573136</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.921349684452094</v>
+      </c>
+      <c r="M64" t="n">
         <v>0.0184636418012471</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.0114073314534734</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O64" t="n">
         <v>0.0617277621122765</v>
       </c>
-      <c r="N64" t="n">
+      <c r="P64" t="n">
         <v>0.0484106639323271</v>
       </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
         <v>0.323802799971497</v>
       </c>
-      <c r="P64" t="n">
+      <c r="R64" t="n">
         <v>0.0114073314534734</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="S64" t="n">
         <v>0.1842735764819285</v>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="T64" t="n">
+        <v>0.323802799971497</v>
+      </c>
+      <c r="U64" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4659,32 +5241,41 @@
         <v>0.9778003692626952</v>
       </c>
       <c r="K65" t="n">
+        <v>0.9927130937576294</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.999152660369873</v>
+      </c>
+      <c r="M65" t="n">
         <v>0.8363507986068726</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.7658023834228516</v>
       </c>
-      <c r="M65" t="n">
+      <c r="O65" t="n">
         <v>0.1885443180799484</v>
       </c>
-      <c r="N65" t="n">
+      <c r="P65" t="n">
         <v>0.0977800339460372</v>
       </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
         <v>0.8807642459869385</v>
       </c>
-      <c r="P65" t="n">
+      <c r="R65" t="n">
         <v>0.7658023834228516</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="S65" t="n">
         <v>0.8754671812057495</v>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="T65" t="n">
+        <v>0.8754671812057495</v>
+      </c>
+      <c r="U65" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -4724,32 +5315,41 @@
         <v>0.9708523750305176</v>
       </c>
       <c r="K66" t="n">
+        <v>0.9869513511657716</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.9986442923545836</v>
+      </c>
+      <c r="M66" t="n">
         <v>0.06378262490034101</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.7656329274177551</v>
       </c>
-      <c r="M66" t="n">
+      <c r="O66" t="n">
         <v>0.1886121034622192</v>
       </c>
-      <c r="N66" t="n">
+      <c r="P66" t="n">
         <v>0.0970852375030517</v>
       </c>
-      <c r="O66" t="n">
+      <c r="Q66" t="n">
         <v>0.8800721168518066</v>
       </c>
-      <c r="P66" t="n">
+      <c r="R66" t="n">
         <v>0.7656329274177551</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="S66" t="n">
         <v>0.8733294606208801</v>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="T66" t="n">
+        <v>0.8733294606208801</v>
+      </c>
+      <c r="U66" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -4789,32 +5389,41 @@
         <v>0.9652601480484008</v>
       </c>
       <c r="K67" t="n">
+        <v>0.9862735271453856</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.9983053803443908</v>
+      </c>
+      <c r="M67" t="n">
         <v>0.0549907349050045</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.7230978012084961</v>
       </c>
-      <c r="M67" t="n">
+      <c r="O67" t="n">
         <v>0.1862057298421859</v>
       </c>
-      <c r="N67" t="n">
+      <c r="P67" t="n">
         <v>0.09652601182460779</v>
       </c>
-      <c r="O67" t="n">
+      <c r="Q67" t="n">
         <v>0.8585981726646423</v>
       </c>
-      <c r="P67" t="n">
+      <c r="R67" t="n">
         <v>0.7230978012084961</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="S67" t="n">
         <v>0.8505347967147827</v>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="T67" t="n">
+        <v>0.8504722714424133</v>
+      </c>
+      <c r="U67" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -4854,32 +5463,41 @@
         <v>0.6436777615279035</v>
       </c>
       <c r="K68" t="n">
+        <v>0.8384975089287876</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.9754785933831894</v>
+      </c>
+      <c r="M68" t="n">
         <v>0.0204022362593479</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.1742539751688085</v>
       </c>
-      <c r="M68" t="n">
+      <c r="O68" t="n">
         <v>0.1087780439991247</v>
       </c>
-      <c r="N68" t="n">
+      <c r="P68" t="n">
         <v>0.08078849923764179</v>
       </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
         <v>0.465330039454798</v>
       </c>
-      <c r="P68" t="n">
+      <c r="R68" t="n">
         <v>0.1742539751688085</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="S68" t="n">
         <v>0.3780311585237301</v>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="T68" t="n">
+        <v>0.465330039454798</v>
+      </c>
+      <c r="U68" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -4919,32 +5537,41 @@
         <v>0.6167785142082682</v>
       </c>
       <c r="K69" t="n">
+        <v>0.8386164441816806</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.9808417435078292</v>
+      </c>
+      <c r="M69" t="n">
         <v>0.0204022362593479</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.1420169897625789</v>
       </c>
-      <c r="M69" t="n">
+      <c r="O69" t="n">
         <v>0.0967980832062697</v>
       </c>
-      <c r="N69" t="n">
+      <c r="P69" t="n">
         <v>0.07645393160531699</v>
       </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
         <v>0.4408560218773699</v>
       </c>
-      <c r="P69" t="n">
+      <c r="R69" t="n">
         <v>0.1420169897625789</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="S69" t="n">
         <v>0.3457053390621198</v>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="T69" t="n">
+        <v>0.4408560218773699</v>
+      </c>
+      <c r="U69" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -4984,32 +5611,41 @@
         <v>0.6167785142082682</v>
       </c>
       <c r="K70" t="n">
+        <v>0.8386164441816806</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.9808417435078292</v>
+      </c>
+      <c r="M70" t="n">
         <v>0.0204022362593479</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.1420169897625789</v>
       </c>
-      <c r="M70" t="n">
+      <c r="O70" t="n">
         <v>0.0967980832062697</v>
       </c>
-      <c r="N70" t="n">
+      <c r="P70" t="n">
         <v>0.07645393160531699</v>
       </c>
-      <c r="O70" t="n">
+      <c r="Q70" t="n">
         <v>0.4408657971989508</v>
       </c>
-      <c r="P70" t="n">
+      <c r="R70" t="n">
         <v>0.1420169897625789</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="S70" t="n">
         <v>0.3457053390621198</v>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="T70" t="n">
+        <v>0.4408657971989508</v>
+      </c>
+      <c r="U70" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -5049,32 +5685,41 @@
         <v>0.3167800700473321</v>
       </c>
       <c r="K71" t="n">
+        <v>0.5235910148565344</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.8256748019762612</v>
+      </c>
+      <c r="M71" t="n">
         <v>0.0204022362593479</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.07013722500544541</v>
       </c>
-      <c r="M71" t="n">
+      <c r="O71" t="n">
         <v>0.054585057721628</v>
       </c>
-      <c r="N71" t="n">
+      <c r="P71" t="n">
         <v>0.0397952515791754</v>
       </c>
-      <c r="O71" t="n">
+      <c r="Q71" t="n">
         <v>0.3273547600138343</v>
       </c>
-      <c r="P71" t="n">
+      <c r="R71" t="n">
         <v>0.07013722500544541</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="S71" t="n">
         <v>0.1776745069254023</v>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="T71" t="n">
+        <v>0.3273547600138343</v>
+      </c>
+      <c r="U71" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -5114,32 +5759,41 @@
         <v>0.7184576485461441</v>
       </c>
       <c r="K72" t="n">
+        <v>0.729456384323641</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.7396965865992414</v>
+      </c>
+      <c r="M72" t="n">
         <v>0.001470151097868</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.62275600505689</v>
       </c>
-      <c r="M72" t="n">
+      <c r="O72" t="n">
         <v>0.1473577749683934</v>
       </c>
-      <c r="N72" t="n">
+      <c r="P72" t="n">
         <v>0.07501896333754721</v>
       </c>
-      <c r="O72" t="n">
+      <c r="Q72" t="n">
         <v>0.7109436485280056</v>
       </c>
-      <c r="P72" t="n">
+      <c r="R72" t="n">
         <v>0.62275600505689</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="S72" t="n">
         <v>0.6751999774878542</v>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="T72" t="n">
+        <v>0.6819598342354767</v>
+      </c>
+      <c r="U72" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="V72" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5179,32 +5833,41 @@
         <v>0.7914738059043884</v>
       </c>
       <c r="K73" t="n">
+        <v>0.8514007329940796</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.9098660349845886</v>
+      </c>
+      <c r="M73" t="n">
         <v>0.0260503254830837</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.2937880754470825</v>
       </c>
-      <c r="M73" t="n">
+      <c r="O73" t="n">
         <v>0.1412911117076873</v>
       </c>
-      <c r="N73" t="n">
+      <c r="P73" t="n">
         <v>0.079147383570671</v>
       </c>
-      <c r="O73" t="n">
-        <v>0.5967362523078918</v>
-      </c>
-      <c r="P73" t="n">
+      <c r="Q73" t="n">
+        <v>0.5969094038009644</v>
+      </c>
+      <c r="R73" t="n">
         <v>0.2937880754470825</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="S73" t="n">
         <v>0.5570669770240784</v>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="T73" t="n">
+        <v>0.5568872094154358</v>
+      </c>
+      <c r="U73" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="V73" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5244,32 +5907,41 @@
         <v>0.7108404636383057</v>
       </c>
       <c r="K74" t="n">
+        <v>0.7829475998878479</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.8545675873756409</v>
+      </c>
+      <c r="M74" t="n">
         <v>0.004364370368421</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.2294762432575225</v>
       </c>
-      <c r="M74" t="n">
+      <c r="O74" t="n">
         <v>0.1237028017640113</v>
       </c>
-      <c r="N74" t="n">
+      <c r="P74" t="n">
         <v>0.07108404487371441</v>
       </c>
-      <c r="O74" t="n">
-        <v>0.5321927070617676</v>
-      </c>
-      <c r="P74" t="n">
+      <c r="Q74" t="n">
+        <v>0.5323788523674011</v>
+      </c>
+      <c r="R74" t="n">
         <v>0.2302070707082748</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="S74" t="n">
         <v>0.4795117378234863</v>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="T74" t="n">
+        <v>0.4793236851692199</v>
+      </c>
+      <c r="U74" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="V74" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5309,32 +5981,41 @@
         <v>0.2638432364096081</v>
       </c>
       <c r="K75" t="n">
+        <v>0.3638432364096081</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.4951959544879898</v>
+      </c>
+      <c r="M75" t="n">
         <v>0.001470151097868</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.0824273072060682</v>
       </c>
-      <c r="M75" t="n">
+      <c r="O75" t="n">
         <v>0.0387357774968393</v>
       </c>
-      <c r="N75" t="n">
+      <c r="P75" t="n">
         <v>0.0265486725663712</v>
       </c>
-      <c r="O75" t="n">
+      <c r="Q75" t="n">
         <v>0.2918977396563365</v>
       </c>
-      <c r="P75" t="n">
+      <c r="R75" t="n">
         <v>0.0824273072060682</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="S75" t="n">
         <v>0.1703298473755481</v>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="T75" t="n">
+        <v>0.2483303801127162</v>
+      </c>
+      <c r="U75" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5374,32 +6055,41 @@
         <v>0.2638432364096081</v>
       </c>
       <c r="K76" t="n">
+        <v>0.3638432364096081</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.5026548672566372</v>
+      </c>
+      <c r="M76" t="n">
         <v>0.001470151097868</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.0824273072060682</v>
       </c>
-      <c r="M76" t="n">
+      <c r="O76" t="n">
         <v>0.0387357774968393</v>
       </c>
-      <c r="N76" t="n">
+      <c r="P76" t="n">
         <v>0.0265486725663712</v>
       </c>
-      <c r="O76" t="n">
+      <c r="Q76" t="n">
         <v>0.2912226209188329</v>
       </c>
-      <c r="P76" t="n">
+      <c r="R76" t="n">
         <v>0.0824273072060682</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="S76" t="n">
         <v>0.1703237967210115</v>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="T76" t="n">
+        <v>0.2477382822102723</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="V76" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5439,32 +6129,41 @@
         <v>0.33032888174057</v>
       </c>
       <c r="K77" t="n">
+        <v>0.3827040195465088</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.5403167009353638</v>
+      </c>
+      <c r="M77" t="n">
         <v>0.0048088957555592</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.07844092696905131</v>
       </c>
-      <c r="M77" t="n">
+      <c r="O77" t="n">
         <v>0.0375152267515659</v>
       </c>
-      <c r="N77" t="n">
+      <c r="P77" t="n">
         <v>0.0330328866839408</v>
       </c>
-      <c r="O77" t="n">
+      <c r="Q77" t="n">
         <v>0.2964783906936645</v>
       </c>
-      <c r="P77" t="n">
+      <c r="R77" t="n">
         <v>0.07844092696905131</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="S77" t="n">
         <v>0.1880343109369278</v>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="T77" t="n">
+        <v>0.1880343109369278</v>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="V77" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5504,32 +6203,41 @@
         <v>0.0374209860935524</v>
       </c>
       <c r="K78" t="n">
+        <v>0.09494310998735769</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.1802781289506953</v>
+      </c>
+      <c r="M78" t="n">
         <v>0.001470151097868</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0</v>
       </c>
-      <c r="M78" t="n">
+      <c r="O78" t="n">
         <v>0.0025284450063211</v>
       </c>
-      <c r="N78" t="n">
+      <c r="P78" t="n">
         <v>0.0037673830594184</v>
       </c>
-      <c r="O78" t="n">
+      <c r="Q78" t="n">
         <v>0.1484402701488733</v>
       </c>
-      <c r="P78" t="n">
+      <c r="R78" t="n">
         <v>0</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="S78" t="n">
         <v>0.0127040796807568</v>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="T78" t="n">
+        <v>0.0582634584039724</v>
+      </c>
+      <c r="U78" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="V78" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5569,32 +6277,41 @@
         <v>0.6203691959381104</v>
       </c>
       <c r="K79" t="n">
+        <v>0.676384449005127</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.7570973634719849</v>
+      </c>
+      <c r="M79" t="n">
         <v>0.0104550346732139</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.4052196145057678</v>
       </c>
-      <c r="M79" t="n">
+      <c r="O79" t="n">
         <v>0.1122087836265564</v>
       </c>
-      <c r="N79" t="n">
+      <c r="P79" t="n">
         <v>0.062036920338869</v>
       </c>
-      <c r="O79" t="n">
+      <c r="Q79" t="n">
         <v>0.5706554651260376</v>
       </c>
-      <c r="P79" t="n">
+      <c r="R79" t="n">
         <v>0.4053469002246856</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="S79" t="n">
         <v>0.5075834393501282</v>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="T79" t="n">
+        <v>0.5076304078102112</v>
+      </c>
+      <c r="U79" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="V79" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -5634,32 +6351,41 @@
         <v>0.5626989006996155</v>
       </c>
       <c r="K80" t="n">
+        <v>0.6269891858100891</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.7182686328887939</v>
+      </c>
+      <c r="M80" t="n">
         <v>0.0022912942804396</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.3387651145458221</v>
       </c>
-      <c r="M80" t="n">
+      <c r="O80" t="n">
         <v>0.1003946512937545</v>
       </c>
-      <c r="N80" t="n">
+      <c r="P80" t="n">
         <v>0.0562698915600776</v>
       </c>
-      <c r="O80" t="n">
-        <v>0.5173241496086121</v>
-      </c>
-      <c r="P80" t="n">
+      <c r="Q80" t="n">
+        <v>0.5174157023429871</v>
+      </c>
+      <c r="R80" t="n">
         <v>0.3392743468284607</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="S80" t="n">
         <v>0.4452615678310394</v>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="T80" t="n">
+        <v>0.4454698264598846</v>
+      </c>
+      <c r="U80" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="V80" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -5699,32 +6425,41 @@
         <v>0.1899562161313123</v>
       </c>
       <c r="K81" t="n">
+        <v>0.2430263226786041</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.3322351370454724</v>
+      </c>
+      <c r="M81" t="n">
         <v>0.0010501718779078</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.0806761957119296</v>
       </c>
-      <c r="M81" t="n">
+      <c r="O81" t="n">
         <v>0.0311159978009889</v>
       </c>
-      <c r="N81" t="n">
+      <c r="P81" t="n">
         <v>0.0207943925233639</v>
       </c>
-      <c r="O81" t="n">
+      <c r="Q81" t="n">
         <v>0.2422852786475547</v>
       </c>
-      <c r="P81" t="n">
+      <c r="R81" t="n">
         <v>0.0806761957119296</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="S81" t="n">
         <v>0.1285566616173736</v>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="T81" t="n">
+        <v>0.1720694227382611</v>
+      </c>
+      <c r="U81" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="V81" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -5764,32 +6499,41 @@
         <v>0.0369250503939893</v>
       </c>
       <c r="K82" t="n">
+        <v>0.0621312076232362</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.141875114531794</v>
+      </c>
+      <c r="M82" t="n">
         <v>0.0010501718779078</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.0015118196811434</v>
       </c>
-      <c r="M82" t="n">
+      <c r="O82" t="n">
         <v>0.0044529961517317</v>
       </c>
-      <c r="N82" t="n">
+      <c r="P82" t="n">
         <v>0.0039857064321055</v>
       </c>
-      <c r="O82" t="n">
+      <c r="Q82" t="n">
         <v>0.1441685524786791</v>
       </c>
-      <c r="P82" t="n">
+      <c r="R82" t="n">
         <v>0.0015118196811434</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="S82" t="n">
         <v>0.0170001943659383</v>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="T82" t="n">
+        <v>0.052991900349481</v>
+      </c>
+      <c r="U82" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr">
+      <c r="V82" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -5829,32 +6573,41 @@
         <v>0.0369250503939893</v>
       </c>
       <c r="K83" t="n">
+        <v>0.061214953271028</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.1309258750229063</v>
+      </c>
+      <c r="M83" t="n">
         <v>0.0010501718779078</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.0015118196811434</v>
       </c>
-      <c r="M83" t="n">
+      <c r="O83" t="n">
         <v>0.0044529961517317</v>
       </c>
-      <c r="N83" t="n">
+      <c r="P83" t="n">
         <v>0.0039857064321055</v>
       </c>
-      <c r="O83" t="n">
+      <c r="Q83" t="n">
         <v>0.1439813792802338</v>
       </c>
-      <c r="P83" t="n">
+      <c r="R83" t="n">
         <v>0.0015118196811434</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="S83" t="n">
         <v>0.0170001943659383</v>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="T83" t="n">
+        <v>0.0530457575255663</v>
+      </c>
+      <c r="U83" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="V83" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -5870,7 +6623,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.003768509499662</v>
+        <v>0.0037685076513479</v>
       </c>
       <c r="D84" t="n">
         <v>0.001400381908752</v>
@@ -5894,32 +6647,41 @@
         <v>0.0478675998747348</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0018915454857051</v>
+        <v>0.08147676289081569</v>
       </c>
       <c r="L84" t="n">
+        <v>0.168300449848175</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0018915445543825</v>
+      </c>
+      <c r="N84" t="n">
         <v>0.001400381908752</v>
       </c>
-      <c r="M84" t="n">
+      <c r="O84" t="n">
         <v>0.0041247610934078</v>
       </c>
-      <c r="N84" t="n">
+      <c r="P84" t="n">
         <v>0.0047867600806057</v>
       </c>
-      <c r="O84" t="n">
+      <c r="Q84" t="n">
         <v>0.1477136313915252</v>
       </c>
-      <c r="P84" t="n">
+      <c r="R84" t="n">
         <v>0.001400381908752</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="S84" t="n">
         <v>0.0198261141777038</v>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="T84" t="n">
+        <v>0.0198261141777038</v>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="V84" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -5959,32 +6721,41 @@
         <v>0.0076965365585486</v>
       </c>
       <c r="K85" t="n">
+        <v>0.0174775517683709</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0349092908191313</v>
+      </c>
+      <c r="M85" t="n">
         <v>0.0010501718779078</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0</v>
       </c>
-      <c r="M85" t="n">
+      <c r="O85" t="n">
         <v>0.0009345794392522999</v>
       </c>
-      <c r="N85" t="n">
+      <c r="P85" t="n">
         <v>0.0007833974711379</v>
       </c>
-      <c r="O85" t="n">
+      <c r="Q85" t="n">
         <v>0.1237603089446737</v>
       </c>
-      <c r="P85" t="n">
+      <c r="R85" t="n">
         <v>0</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="S85" t="n">
         <v>0.0037281491475624</v>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="T85" t="n">
+        <v>0.0176894945403803</v>
+      </c>
+      <c r="U85" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="V85" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>

--- a/baselines_evaluation.xlsx
+++ b/baselines_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,15 +531,20 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>NDCG@50</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>NDCG@100</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Set</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Subset</t>
         </is>
@@ -555,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0348220159855383</v>
+        <v>0.0348217294404506</v>
       </c>
       <c r="D2" t="n">
         <v>0.4347457587718963</v>
@@ -585,7 +590,7 @@
         <v>0.8940678238868713</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0177563019096851</v>
+        <v>0.0177561528980731</v>
       </c>
       <c r="N2" t="n">
         <v>0.4347457587718963</v>
@@ -606,14 +611,17 @@
         <v>0.5644705295562744</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5644705295562744</v>
-      </c>
-      <c r="U2" t="inlineStr">
+        <v>0.6048077344894409</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6154000163078308</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -680,14 +688,17 @@
         <v>0.5952140688896179</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5952140688896179</v>
-      </c>
-      <c r="U3" t="inlineStr">
+        <v>0.6359303593635559</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.641235888004303</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -754,14 +765,17 @@
         <v>0.5396417379379272</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5396417379379272</v>
-      </c>
-      <c r="U4" t="inlineStr">
+        <v>0.5852146148681641</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5943699479103088</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -828,14 +842,17 @@
         <v>0.1501977475329972</v>
       </c>
       <c r="T5" t="n">
+        <v>0.2303985196960775</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.2723807180918493</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -902,14 +919,17 @@
         <v>0.1507579610863343</v>
       </c>
       <c r="T6" t="n">
+        <v>0.2312980914444357</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.2733596637437333</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -976,14 +996,17 @@
         <v>0.1507924511179428</v>
       </c>
       <c r="T7" t="n">
+        <v>0.2320065240448487</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.2732869666845965</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -1050,14 +1073,17 @@
         <v>0.0412975915400485</v>
       </c>
       <c r="T8" t="n">
+        <v>0.1078512512116413</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.1714609918743153</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>gijon</t>
         </is>
@@ -1124,14 +1150,17 @@
         <v>0.4592688977718353</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4592825472354889</v>
-      </c>
-      <c r="U9" t="inlineStr">
+        <v>0.4992067217826843</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5102433562278748</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1147,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0034711353600503</v>
+        <v>0.0034711360560141</v>
       </c>
       <c r="D10" t="n">
         <v>0.286855399608612</v>
@@ -1177,7 +1206,7 @@
         <v>0.7396606206893921</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0017387170810252</v>
+        <v>0.0017387174302712</v>
       </c>
       <c r="N10" t="n">
         <v>0.286855399608612</v>
@@ -1189,7 +1218,7 @@
         <v>0.0557829551398754</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4888677299022674</v>
+        <v>0.4888693988323211</v>
       </c>
       <c r="R10" t="n">
         <v>0.286855399608612</v>
@@ -1198,14 +1227,17 @@
         <v>0.4136734306812286</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4136539101600647</v>
-      </c>
-      <c r="U10" t="inlineStr">
+        <v>0.4539757370948791</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4659048318862915</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1263,7 +1295,7 @@
         <v>0.0559342056512832</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.487712949514389</v>
+        <v>0.4877830147743225</v>
       </c>
       <c r="R11" t="n">
         <v>0.2842558026313782</v>
@@ -1272,14 +1304,17 @@
         <v>0.4130165576934814</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4129970967769623</v>
-      </c>
-      <c r="U11" t="inlineStr">
+        <v>0.4531088769435882</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.4640129208564758</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1346,14 +1381,17 @@
         <v>0.0553665440696344</v>
       </c>
       <c r="T12" t="n">
+        <v>0.0834258235605202</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.09889623401292789</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1420,14 +1458,17 @@
         <v>0.0277294863319811</v>
       </c>
       <c r="T13" t="n">
+        <v>0.0501960931148131</v>
+      </c>
+      <c r="U13" t="n">
         <v>0.06644434910065419</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1494,14 +1535,17 @@
         <v>0.0276836787521129</v>
       </c>
       <c r="T14" t="n">
+        <v>0.0502883018899351</v>
+      </c>
+      <c r="U14" t="n">
         <v>0.06640341405668181</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1568,14 +1612,17 @@
         <v>0.0034740264069173</v>
       </c>
       <c r="T15" t="n">
+        <v>0.0108077779421791</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.0171006450776776</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -1642,14 +1689,17 @@
         <v>0.5126505494117737</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5126505494117737</v>
-      </c>
-      <c r="U16" t="inlineStr">
+        <v>0.5471581816673279</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.5562483072280884</v>
+      </c>
+      <c r="V16" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1707,7 +1757,7 @@
         <v>0.0621414519846439</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5445549488067627</v>
+        <v>0.5445188879966736</v>
       </c>
       <c r="R17" t="n">
         <v>0.3528560996055603</v>
@@ -1716,14 +1766,17 @@
         <v>0.4808982312679291</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4806854426860809</v>
-      </c>
-      <c r="U17" t="inlineStr">
+        <v>0.5147638320922852</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5241700410842896</v>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1781,7 +1834,7 @@
         <v>0.0598639659583568</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5249077677726746</v>
+        <v>0.5249006748199463</v>
       </c>
       <c r="R18" t="n">
         <v>0.3300812542438507</v>
@@ -1790,14 +1843,17 @@
         <v>0.4573675394058227</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4573764503002167</v>
-      </c>
-      <c r="U18" t="inlineStr">
+        <v>0.4929872751235962</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5026887059211731</v>
+      </c>
+      <c r="V18" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1864,14 +1920,17 @@
         <v>0.06286802554049301</v>
       </c>
       <c r="T19" t="n">
+        <v>0.0925454679601848</v>
+      </c>
+      <c r="U19" t="n">
         <v>0.1070194832424315</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -1938,14 +1997,17 @@
         <v>0.0398488502582696</v>
       </c>
       <c r="T20" t="n">
+        <v>0.06331445841966481</v>
+      </c>
+      <c r="U20" t="n">
         <v>0.0779873543921258</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -2012,14 +2074,17 @@
         <v>0.0398488502582696</v>
       </c>
       <c r="T21" t="n">
+        <v>0.0632158348868537</v>
+      </c>
+      <c r="U21" t="n">
         <v>0.0781719429267571</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -2086,14 +2151,17 @@
         <v>0.0019870119229032</v>
       </c>
       <c r="T22" t="n">
+        <v>0.0088232855181206</v>
+      </c>
+      <c r="U22" t="n">
         <v>0.0145728285877015</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -2151,7 +2219,7 @@
         <v>0.0522512905299663</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.4737207591533661</v>
+        <v>0.4737182557582855</v>
       </c>
       <c r="R23" t="n">
         <v>0.2854496836662292</v>
@@ -2160,14 +2228,17 @@
         <v>0.3960371315479278</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3960230350494385</v>
-      </c>
-      <c r="U23" t="inlineStr">
+        <v>0.4341686069965362</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.4460548758506775</v>
+      </c>
+      <c r="V23" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2183,7 +2254,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0013343716940803</v>
+        <v>0.0013343719265892</v>
       </c>
       <c r="D24" t="n">
         <v>0.2409394681453704</v>
@@ -2213,7 +2284,7 @@
         <v>0.6290051341056824</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0006676472839899</v>
+        <v>0.0006676474004052</v>
       </c>
       <c r="N24" t="n">
         <v>0.2409394681453704</v>
@@ -2225,7 +2296,7 @@
         <v>0.0457494743168354</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4257848262786865</v>
+        <v>0.4257791638374328</v>
       </c>
       <c r="R24" t="n">
         <v>0.2409012764692306</v>
@@ -2234,14 +2305,17 @@
         <v>0.3411957621574402</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3412104547023773</v>
-      </c>
-      <c r="U24" t="inlineStr">
+        <v>0.3790355920791626</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.3913694322109222</v>
+      </c>
+      <c r="V24" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2299,7 +2373,7 @@
         <v>0.045445866882801</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4205288887023926</v>
+        <v>0.420582115650177</v>
       </c>
       <c r="R25" t="n">
         <v>0.2352109998464584</v>
@@ -2308,14 +2382,17 @@
         <v>0.3372302055358886</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3372342884540558</v>
-      </c>
-      <c r="U25" t="inlineStr">
+        <v>0.3734572529792785</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3848508894443512</v>
+      </c>
+      <c r="V25" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2382,14 +2459,17 @@
         <v>0.040528230488395</v>
       </c>
       <c r="T26" t="n">
+        <v>0.0600114161142126</v>
+      </c>
+      <c r="U26" t="n">
         <v>0.0695082121419167</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2456,14 +2536,17 @@
         <v>0.0198916446151054</v>
       </c>
       <c r="T27" t="n">
+        <v>0.0324910137769409</v>
+      </c>
+      <c r="U27" t="n">
         <v>0.0410299053047943</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2530,14 +2613,17 @@
         <v>0.0198646900000702</v>
       </c>
       <c r="T28" t="n">
+        <v>0.0324763026848695</v>
+      </c>
+      <c r="U28" t="n">
         <v>0.04103634117027</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2604,14 +2690,17 @@
         <v>0.0017308861788767</v>
       </c>
       <c r="T29" t="n">
+        <v>0.0042898735974708</v>
+      </c>
+      <c r="U29" t="n">
         <v>0.0068192340087864</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2669,7 +2758,7 @@
         <v>0.07022698223590849</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6156264543533325</v>
+        <v>0.61557936668396</v>
       </c>
       <c r="R30" t="n">
         <v>0.4328436851501465</v>
@@ -2678,14 +2767,17 @@
         <v>0.5622794032096863</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5622794032096863</v>
-      </c>
-      <c r="U30" t="inlineStr">
+        <v>0.5947025418281555</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6026168465614319</v>
+      </c>
+      <c r="V30" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2701,7 +2793,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0029024705030428</v>
+        <v>0.0029024700387579</v>
       </c>
       <c r="D31" t="n">
         <v>0.4126940667629242</v>
@@ -2731,7 +2823,7 @@
         <v>0.8285552859306335</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0014533848734572</v>
+        <v>0.0014533846406266</v>
       </c>
       <c r="N31" t="n">
         <v>0.4126940667629242</v>
@@ -2743,7 +2835,7 @@
         <v>0.0674857571721077</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5954210758209229</v>
+        <v>0.5954316854476929</v>
       </c>
       <c r="R31" t="n">
         <v>0.4127486944198608</v>
@@ -2752,14 +2844,17 @@
         <v>0.5375685691833496</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5376056432723999</v>
-      </c>
-      <c r="U31" t="inlineStr">
+        <v>0.5720813274383545</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.5809431672096252</v>
+      </c>
+      <c r="V31" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2817,7 +2912,7 @@
         <v>0.0651831999421119</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5732842683792114</v>
+        <v>0.573369562625885</v>
       </c>
       <c r="R32" t="n">
         <v>0.3882487714290619</v>
@@ -2826,14 +2921,17 @@
         <v>0.5134545564651489</v>
       </c>
       <c r="T32" t="n">
-        <v>0.5133510828018188</v>
-      </c>
-      <c r="U32" t="inlineStr">
+        <v>0.5470680594444275</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5559470057487488</v>
+      </c>
+      <c r="V32" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2900,14 +2998,17 @@
         <v>0.0745009487267802</v>
       </c>
       <c r="T33" t="n">
+        <v>0.1081967220664096</v>
+      </c>
+      <c r="U33" t="n">
         <v>0.1227757646855746</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -2974,14 +3075,17 @@
         <v>0.0500201498123002</v>
       </c>
       <c r="T34" t="n">
+        <v>0.0780993725466764</v>
+      </c>
+      <c r="U34" t="n">
         <v>0.09427421387785161</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -3048,14 +3152,17 @@
         <v>0.0500312726500009</v>
       </c>
       <c r="T35" t="n">
+        <v>0.0780413178598344</v>
+      </c>
+      <c r="U35" t="n">
         <v>0.0942672284122188</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -3122,14 +3229,17 @@
         <v>0.0015731982532033</v>
       </c>
       <c r="T36" t="n">
+        <v>0.0077701906431246</v>
+      </c>
+      <c r="U36" t="n">
         <v>0.014466137255728</v>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>restaurants</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -3145,7 +3255,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.105561736068026</v>
+        <v>0.1055624086823024</v>
       </c>
       <c r="D37" t="n">
         <v>0.7314998507499695</v>
@@ -3175,7 +3285,7 @@
         <v>0.9945228099822998</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0558276250958442</v>
+        <v>0.0558280013501644</v>
       </c>
       <c r="N37" t="n">
         <v>0.7314998507499695</v>
@@ -3196,14 +3306,17 @@
         <v>0.8429543375968933</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8429543375968933</v>
-      </c>
-      <c r="U37" t="inlineStr">
+        <v>0.8533087372779846</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.8542130589485168</v>
+      </c>
+      <c r="V37" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3270,14 +3383,17 @@
         <v>0.8454810976982117</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8454810976982117</v>
-      </c>
-      <c r="U38" t="inlineStr">
+        <v>0.853635847568512</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.8539680242538452</v>
+      </c>
+      <c r="V38" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3344,14 +3460,17 @@
         <v>0.8293303251266479</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8293303251266479</v>
-      </c>
-      <c r="U39" t="inlineStr">
+        <v>0.840164840221405</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.8410143852233887</v>
+      </c>
+      <c r="V39" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3418,14 +3537,17 @@
         <v>0.4173979663995851</v>
       </c>
       <c r="T40" t="n">
+        <v>0.4845304777696291</v>
+      </c>
+      <c r="U40" t="n">
         <v>0.4925164387744412</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3492,14 +3614,17 @@
         <v>0.3923960908089205</v>
       </c>
       <c r="T41" t="n">
+        <v>0.4680354991456109</v>
+      </c>
+      <c r="U41" t="n">
         <v>0.4750965192216064</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3566,14 +3691,17 @@
         <v>0.3919308238326217</v>
       </c>
       <c r="T42" t="n">
+        <v>0.4678819851116836</v>
+      </c>
+      <c r="U42" t="n">
         <v>0.4746453856459868</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3640,14 +3768,17 @@
         <v>0.242701983737122</v>
       </c>
       <c r="T43" t="n">
+        <v>0.3407138491612576</v>
+      </c>
+      <c r="U43" t="n">
         <v>0.3685844867256266</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>barcelona</t>
         </is>
@@ -3714,14 +3845,17 @@
         <v>0.8510051965713501</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8510051965713501</v>
-      </c>
-      <c r="U44" t="inlineStr">
+        <v>0.8606725335121155</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.8616952300071716</v>
+      </c>
+      <c r="V44" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3788,14 +3922,17 @@
         <v>0.8548914194107056</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8548914194107056</v>
-      </c>
-      <c r="U45" t="inlineStr">
+        <v>0.8621896505355835</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.8628945350646973</v>
+      </c>
+      <c r="V45" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3853,7 +3990,7 @@
         <v>0.0949731022119522</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8431327342987061</v>
+        <v>0.8431747555732727</v>
       </c>
       <c r="R46" t="n">
         <v>0.7052791118621826</v>
@@ -3862,14 +3999,17 @@
         <v>0.8319594860076904</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8318864107131958</v>
-      </c>
-      <c r="U46" t="inlineStr">
+        <v>0.8420404195785522</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.8429121971130371</v>
+      </c>
+      <c r="V46" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -3936,14 +4076,17 @@
         <v>0.3878815768424552</v>
       </c>
       <c r="T47" t="n">
+        <v>0.4558655878119891</v>
+      </c>
+      <c r="U47" t="n">
         <v>0.4687272448043427</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -4010,14 +4153,17 @@
         <v>0.3446552495184699</v>
       </c>
       <c r="T48" t="n">
+        <v>0.4209727437028769</v>
+      </c>
+      <c r="U48" t="n">
         <v>0.4350914383049284</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -4084,14 +4230,17 @@
         <v>0.3446552495184699</v>
       </c>
       <c r="T49" t="n">
+        <v>0.4209604917250115</v>
+      </c>
+      <c r="U49" t="n">
         <v>0.4351600042842939</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -4158,14 +4307,17 @@
         <v>0.2251824187505021</v>
       </c>
       <c r="T50" t="n">
+        <v>0.3246283214198016</v>
+      </c>
+      <c r="U50" t="n">
         <v>0.3577088706056995</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>madrid</t>
         </is>
@@ -4232,14 +4384,17 @@
         <v>0.8921695947647095</v>
       </c>
       <c r="T51" t="n">
-        <v>0.8921695947647095</v>
-      </c>
-      <c r="U51" t="inlineStr">
+        <v>0.8979582190513611</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.8979824781417847</v>
+      </c>
+      <c r="V51" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4306,14 +4461,17 @@
         <v>0.8833838105201721</v>
       </c>
       <c r="T52" t="n">
-        <v>0.8833838105201721</v>
-      </c>
-      <c r="U52" t="inlineStr">
+        <v>0.8891003131866455</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.8891003131866455</v>
+      </c>
+      <c r="V52" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4380,14 +4538,17 @@
         <v>0.8657087087631226</v>
       </c>
       <c r="T53" t="n">
-        <v>0.8657087087631226</v>
-      </c>
-      <c r="U53" t="inlineStr">
+        <v>0.8724902868270874</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.8725389838218689</v>
+      </c>
+      <c r="V53" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4454,14 +4615,17 @@
         <v>0.5055685804605373</v>
       </c>
       <c r="T54" t="n">
+        <v>0.5628103631263095</v>
+      </c>
+      <c r="U54" t="n">
         <v>0.5637631483684409</v>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4528,14 +4692,17 @@
         <v>0.4507475225031617</v>
       </c>
       <c r="T55" t="n">
+        <v>0.5144912595098532</v>
+      </c>
+      <c r="U55" t="n">
         <v>0.5149402759986091</v>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4602,14 +4769,17 @@
         <v>0.450414574342265</v>
       </c>
       <c r="T56" t="n">
+        <v>0.5143241761802573</v>
+      </c>
+      <c r="U56" t="n">
         <v>0.5147731926690132</v>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
+      <c r="W56" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4676,14 +4846,17 @@
         <v>0.2529822025563364</v>
       </c>
       <c r="T57" t="n">
+        <v>0.3508926884903522</v>
+      </c>
+      <c r="U57" t="n">
         <v>0.3516733299641237</v>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -4750,14 +4923,17 @@
         <v>0.8794039487838745</v>
       </c>
       <c r="T58" t="n">
-        <v>0.8794039487838745</v>
-      </c>
-      <c r="U58" t="inlineStr">
+        <v>0.8854630589485168</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.8859732151031494</v>
+      </c>
+      <c r="V58" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr">
+      <c r="W58" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4824,14 +5000,17 @@
         <v>0.8762820959091187</v>
       </c>
       <c r="T59" t="n">
-        <v>0.8762820959091187</v>
-      </c>
-      <c r="U59" t="inlineStr">
+        <v>0.8822622299194336</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.8823725581169128</v>
+      </c>
+      <c r="V59" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4889,7 +5068,7 @@
         <v>0.0962976664304733</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.854947566986084</v>
+        <v>0.8549134135246277</v>
       </c>
       <c r="R60" t="n">
         <v>0.7160310745239258</v>
@@ -4898,14 +5077,17 @@
         <v>0.8464776873588562</v>
       </c>
       <c r="T60" t="n">
-        <v>0.8464776873588562</v>
-      </c>
-      <c r="U60" t="inlineStr">
+        <v>0.8544533848762512</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.854947566986084</v>
+      </c>
+      <c r="V60" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr">
+      <c r="W60" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -4972,14 +5154,17 @@
         <v>0.3877663051407842</v>
       </c>
       <c r="T61" t="n">
+        <v>0.4731502333994314</v>
+      </c>
+      <c r="U61" t="n">
         <v>0.4784496321441399</v>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr">
+      <c r="W61" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -5046,14 +5231,17 @@
         <v>0.3579311176984013</v>
       </c>
       <c r="T62" t="n">
+        <v>0.4494986553150527</v>
+      </c>
+      <c r="U62" t="n">
         <v>0.4542376308857733</v>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -5120,14 +5308,17 @@
         <v>0.3579311176984013</v>
       </c>
       <c r="T63" t="n">
+        <v>0.4495031194896419</v>
+      </c>
+      <c r="U63" t="n">
         <v>0.4542415095659065</v>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -5194,14 +5385,17 @@
         <v>0.1842735764819285</v>
       </c>
       <c r="T64" t="n">
+        <v>0.3090210410023175</v>
+      </c>
+      <c r="U64" t="n">
         <v>0.323802799971497</v>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
+      <c r="W64" t="inlineStr">
         <is>
           <t>newyorkcity</t>
         </is>
@@ -5268,14 +5462,17 @@
         <v>0.8754671812057495</v>
       </c>
       <c r="T65" t="n">
-        <v>0.8754671812057495</v>
-      </c>
-      <c r="U65" t="inlineStr">
+        <v>0.880618155002594</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.8807642459869385</v>
+      </c>
+      <c r="V65" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -5291,7 +5488,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1197713864623703</v>
+        <v>0.1197726343768095</v>
       </c>
       <c r="D66" t="n">
         <v>0.7656329274177551</v>
@@ -5321,7 +5518,7 @@
         <v>0.9986442923545836</v>
       </c>
       <c r="M66" t="n">
-        <v>0.06378262490034101</v>
+        <v>0.0637833327054977</v>
       </c>
       <c r="N66" t="n">
         <v>0.7656329274177551</v>
@@ -5342,14 +5539,17 @@
         <v>0.8733294606208801</v>
       </c>
       <c r="T66" t="n">
-        <v>0.8733294606208801</v>
-      </c>
-      <c r="U66" t="inlineStr">
+        <v>0.8798417448997498</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.8800721168518066</v>
+      </c>
+      <c r="V66" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -5416,14 +5616,17 @@
         <v>0.8505347967147827</v>
       </c>
       <c r="T67" t="n">
-        <v>0.8504722714424133</v>
-      </c>
-      <c r="U67" t="inlineStr">
+        <v>0.8583071827888489</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.8585981726646423</v>
+      </c>
+      <c r="V67" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -5490,14 +5693,17 @@
         <v>0.3780311585237301</v>
       </c>
       <c r="T68" t="n">
+        <v>0.4609141287437294</v>
+      </c>
+      <c r="U68" t="n">
         <v>0.465330039454798</v>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
+      <c r="W68" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -5564,14 +5770,17 @@
         <v>0.3457053390621198</v>
       </c>
       <c r="T69" t="n">
+        <v>0.4372953993454917</v>
+      </c>
+      <c r="U69" t="n">
         <v>0.4408560218773699</v>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
+      <c r="W69" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -5638,14 +5847,17 @@
         <v>0.3457053390621198</v>
       </c>
       <c r="T70" t="n">
+        <v>0.4373042501674861</v>
+      </c>
+      <c r="U70" t="n">
         <v>0.4408657971989508</v>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -5712,14 +5924,17 @@
         <v>0.1776745069254023</v>
       </c>
       <c r="T71" t="n">
+        <v>0.2955749776383879</v>
+      </c>
+      <c r="U71" t="n">
         <v>0.3273547600138343</v>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>pois</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr">
+      <c r="W71" t="inlineStr">
         <is>
           <t>london</t>
         </is>
@@ -5786,14 +6001,17 @@
         <v>0.6751999774878542</v>
       </c>
       <c r="T72" t="n">
+        <v>0.6800193363882565</v>
+      </c>
+      <c r="U72" t="n">
         <v>0.6819598342354767</v>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="V72" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V72" t="inlineStr">
+      <c r="W72" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5851,7 +6069,7 @@
         <v>0.079147383570671</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.5969094038009644</v>
+        <v>0.5963734984397888</v>
       </c>
       <c r="R73" t="n">
         <v>0.2937880754470825</v>
@@ -5860,14 +6078,17 @@
         <v>0.5570669770240784</v>
       </c>
       <c r="T73" t="n">
-        <v>0.5568872094154358</v>
-      </c>
-      <c r="U73" t="inlineStr">
+        <v>0.5837991237640381</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.5897855162620544</v>
+      </c>
+      <c r="V73" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V73" t="inlineStr">
+      <c r="W73" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5925,7 +6146,7 @@
         <v>0.07108404487371441</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.5323788523674011</v>
+        <v>0.5321970582008362</v>
       </c>
       <c r="R74" t="n">
         <v>0.2302070707082748</v>
@@ -5934,14 +6155,17 @@
         <v>0.4795117378234863</v>
       </c>
       <c r="T74" t="n">
-        <v>0.4793236851692199</v>
-      </c>
-      <c r="U74" t="inlineStr">
+        <v>0.512010395526886</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.5194951295852661</v>
+      </c>
+      <c r="V74" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
+      <c r="W74" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -6008,14 +6232,17 @@
         <v>0.1703298473755481</v>
       </c>
       <c r="T75" t="n">
+        <v>0.2209767606604606</v>
+      </c>
+      <c r="U75" t="n">
         <v>0.2483303801127162</v>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -6082,14 +6309,17 @@
         <v>0.1703237967210115</v>
       </c>
       <c r="T76" t="n">
+        <v>0.2216913001318595</v>
+      </c>
+      <c r="U76" t="n">
         <v>0.2477382822102723</v>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="V76" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -6156,14 +6386,17 @@
         <v>0.1880343109369278</v>
       </c>
       <c r="T77" t="n">
-        <v>0.1880343109369278</v>
-      </c>
-      <c r="U77" t="inlineStr">
+        <v>0.2328881174325943</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.2535010576248169</v>
+      </c>
+      <c r="V77" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V77" t="inlineStr">
+      <c r="W77" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -6230,14 +6463,17 @@
         <v>0.0127040796807568</v>
       </c>
       <c r="T78" t="n">
+        <v>0.0441776987641012</v>
+      </c>
+      <c r="U78" t="n">
         <v>0.0582634584039724</v>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="V78" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V78" t="inlineStr">
+      <c r="W78" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -6304,14 +6540,17 @@
         <v>0.5075834393501282</v>
       </c>
       <c r="T79" t="n">
-        <v>0.5076304078102112</v>
-      </c>
-      <c r="U79" t="inlineStr">
+        <v>0.5378535389900208</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.5487489700317383</v>
+      </c>
+      <c r="V79" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V79" t="inlineStr">
+      <c r="W79" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -6369,7 +6608,7 @@
         <v>0.0562698915600776</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.5174157023429871</v>
+        <v>0.5176370739936829</v>
       </c>
       <c r="R80" t="n">
         <v>0.3392743468284607</v>
@@ -6378,14 +6617,17 @@
         <v>0.4452615678310394</v>
       </c>
       <c r="T80" t="n">
-        <v>0.4454698264598846</v>
-      </c>
-      <c r="U80" t="inlineStr">
+        <v>0.4797200560569763</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.4916338622570038</v>
+      </c>
+      <c r="V80" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V80" t="inlineStr">
+      <c r="W80" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -6452,14 +6694,17 @@
         <v>0.1285566616173736</v>
       </c>
       <c r="T81" t="n">
+        <v>0.1606588559298847</v>
+      </c>
+      <c r="U81" t="n">
         <v>0.1720694227382611</v>
       </c>
-      <c r="U81" t="inlineStr">
+      <c r="V81" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr">
+      <c r="W81" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -6526,14 +6771,17 @@
         <v>0.0170001943659383</v>
       </c>
       <c r="T82" t="n">
+        <v>0.0391678363306983</v>
+      </c>
+      <c r="U82" t="n">
         <v>0.052991900349481</v>
       </c>
-      <c r="U82" t="inlineStr">
+      <c r="V82" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr">
+      <c r="W82" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -6600,14 +6848,17 @@
         <v>0.0170001943659383</v>
       </c>
       <c r="T83" t="n">
+        <v>0.0370815569483478</v>
+      </c>
+      <c r="U83" t="n">
         <v>0.0530457575255663</v>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="V83" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -6674,14 +6925,17 @@
         <v>0.0198261141777038</v>
       </c>
       <c r="T84" t="n">
-        <v>0.0198261141777038</v>
-      </c>
-      <c r="U84" t="inlineStr">
+        <v>0.0452998504042625</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.0612001158297061</v>
+      </c>
+      <c r="V84" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V84" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
@@ -6748,14 +7002,17 @@
         <v>0.0037281491475624</v>
       </c>
       <c r="T85" t="n">
+        <v>0.0096762957891593</v>
+      </c>
+      <c r="U85" t="n">
         <v>0.0176894945403803</v>
       </c>
-      <c r="U85" t="inlineStr">
+      <c r="V85" t="inlineStr">
         <is>
           <t>amazon</t>
         </is>
       </c>
-      <c r="V85" t="inlineStr">
+      <c r="W85" t="inlineStr">
         <is>
           <t>digital_music</t>
         </is>
